--- a/slides/05_pet_breeds_multicat.xlsx
+++ b/slides/05_pet_breeds_multicat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/196f0b5afced95ca/Dev/Python/cours-deeplearning-2020/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="962" documentId="8_{54925A65-0A31-4BBD-84F6-D26AACE90504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{863EEE5D-7339-4E4B-9817-3A3E410243A0}"/>
+  <xr:revisionPtr revIDLastSave="963" documentId="8_{54925A65-0A31-4BBD-84F6-D26AACE90504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E45756A9-0B91-44A2-B6AF-01B280D5D935}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{931F91DC-39E4-49EC-BA01-FB85E43D97B9}"/>
   </bookViews>
@@ -351,9 +351,6 @@
     <t>activation normalisée</t>
   </si>
   <si>
-    <t>Mesure de distance - LOG =&gt; Negative Log Likelyhood</t>
-  </si>
-  <si>
     <t>Mesure de distance - 1 prédiction SOFTMAX =&gt; Categorical Cross Entropy</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t>Voir notebook : tracer accuracy = fonction (seuil)</t>
+  </si>
+  <si>
+    <t>Mesure de distance - LOG =&gt; Negative Log Likelihood</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EF60FC-3C2B-4C30-8DFF-A4C02F1DBE4E}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="57" t="s">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
     </row>
     <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,12 +2156,12 @@
     </row>
     <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2269,27 +2269,27 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111" s="64">
         <v>0</v>
@@ -2298,183 +2298,183 @@
         <v>1</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113" s="13">
         <v>0</v>
       </c>
       <c r="C113" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="13">
         <v>1</v>
       </c>
       <c r="C114" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
         <v>114</v>
-      </c>
-      <c r="C125" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" t="s">
         <v>119</v>
-      </c>
-      <c r="C147" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
